--- a/apps/projeto21/Arqs_auxiliares/1 Projeto21_TEMPLATES_todas_areas (1).xlsx
+++ b/apps/projeto21/Arqs_auxiliares/1 Projeto21_TEMPLATES_todas_areas (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wanderley\Apps\escola_no_ar_site\apps\projeto21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wanderley\Apps\escola_no_ar_site\apps\projeto21\Arqs_auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A56EDD-1775-474F-BBA1-BCE5B432400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC59B40-D5E6-4890-9087-F1E70C31D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo &amp; Instruções" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="320">
   <si>
     <t>Como preencher</t>
   </si>
@@ -48,9 +48,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Preencha FreqNum/Unid (G/H), IntervaloNum/Unid (I/J – opcional) e PeriodoNum/Unid (K/L).</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>4.</t>
   </si>
   <si>
-    <t>A coluna CODIGO é base (área+dim+ordem); o sufixo será gerado após preenchimento.</t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>6.</t>
   </si>
   <si>
-    <t>Use apenas números inteiros (&gt;=0) para Freq/Intervalo/Período.</t>
-  </si>
-  <si>
     <t>Exemplo de sufixo</t>
   </si>
   <si>
@@ -120,18 +111,12 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Dimensao</t>
-  </si>
-  <si>
     <t>Estrategia</t>
   </si>
   <si>
     <t>OrdemArea</t>
   </si>
   <si>
-    <t>OrdemDimensao</t>
-  </si>
-  <si>
     <t>OrdemEstrategia</t>
   </si>
   <si>
@@ -141,12 +126,6 @@
     <t>FreqUnid</t>
   </si>
   <si>
-    <t>IntervaloNum</t>
-  </si>
-  <si>
-    <t>IntervaloUnid</t>
-  </si>
-  <si>
     <t>PeriodoNum</t>
   </si>
   <si>
@@ -237,9 +216,6 @@
     <t>Nota:</t>
   </si>
   <si>
-    <t>Preencha G-L; deixe Intervalo em branco se não se aplica.</t>
-  </si>
-  <si>
     <t>Revisar o conteúdo de uma aula no mesmo dia.</t>
   </si>
   <si>
@@ -771,18 +747,12 @@
     <t>Apresentar um seminário curto com slides originais na aula em classe, para colegas ou para os pais.</t>
   </si>
   <si>
-    <t>Descrição da Frequência</t>
-  </si>
-  <si>
     <t>Basico</t>
   </si>
   <si>
     <t>Reduzir açúcar e eliminar refrigerante</t>
   </si>
   <si>
-    <t>quant-intervalo</t>
-  </si>
-  <si>
     <t>unid-intervfalo</t>
   </si>
   <si>
@@ -964,6 +934,72 @@
   </si>
   <si>
     <t>2d7d = 2 vezes por dia por 7 dias | 1s2s = 1 vez por semana por 2 semanas | 0d3d = dia inteiro por 3 dias | 0d0d - ficar atento para a primeira oportunidade  | 1d1d - pelo menos uma vez na primeira oportunidade</t>
+  </si>
+  <si>
+    <t>FreqNum/Unid</t>
+  </si>
+  <si>
+    <t>Quantas vezes (Num) por tempo (Unid) - Ex. Uma vez por dia ou duas vezes por semana</t>
+  </si>
+  <si>
+    <t>em uma cadência de (Num) tempo (Unid) - Ex. De três em três (Num) dias (Unid)</t>
+  </si>
+  <si>
+    <t>Duracao Num/Unid</t>
+  </si>
+  <si>
+    <t>Por um período de (Num) tempo (Unid) - Ex.: Por um período de duas (Num) semanas (Unid)</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>OrdemNivel</t>
+  </si>
+  <si>
+    <t>CadenciaNum/Unid</t>
+  </si>
+  <si>
+    <t>Use apenas números inteiros (&gt;=0) para Freq/Cadencia/Período.</t>
+  </si>
+  <si>
+    <t>quant-Cadencia</t>
+  </si>
+  <si>
+    <t>CadenciaNum</t>
+  </si>
+  <si>
+    <t>CadenciaUnid</t>
+  </si>
+  <si>
+    <t>Preencha G-L; deixe Cadencia em branco se não se aplica.</t>
+  </si>
+  <si>
+    <t>Descrição da Dosagem</t>
+  </si>
+  <si>
+    <t>A coluna CODIGO é base (área+nivel+ordem); o sufixo será gerado após preenchimento.</t>
+  </si>
+  <si>
+    <t>Preencha FreqNum/Unid (colunas G/H), CadenciaNum/Unid (colunas I/J – opcional) e PeriodoNum/Unid (colunas K/L).  Cadência sem valor significa "não se aplica"</t>
+  </si>
+  <si>
+    <t>Ordem Área</t>
+  </si>
+  <si>
+    <t>Segue a sequência das Abas da esquerda (Familia=1) para a direita, consecutivamente até Igreja=6</t>
+  </si>
+  <si>
+    <t>Ordem Nível</t>
+  </si>
+  <si>
+    <t>1 = Básico, 2 = Desafio e 3 = Avançado</t>
+  </si>
+  <si>
+    <t>Ordem Estratégia</t>
+  </si>
+  <si>
+    <t>Pela sequencia do registro, por linha, apenas dentro do nível. Ex.: A primeira linha do nível básico = , até a última estratégia do nível básico = 10. Zera para iniciar o nivel Desafio, 1 a 12, e nível Avançado, 1 a 15.</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1109,6 +1145,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,9 +1453,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1428,141 +1467,192 @@
     <col min="4" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="B2" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="B3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B23">
         <v>37</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B24">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B25">
         <v>37</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>37</v>
-      </c>
-      <c r="C18">
+      <c r="C25">
         <v>3</v>
       </c>
     </row>
@@ -1581,10 +1671,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1597,8 +1687,8 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:O38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,60 +1705,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="119.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="L1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="N1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1683,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -1691,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="9" t="str">
         <f>LEFT(A2,2)&amp;LEFT(B2,1)&amp;TEXT(F2,"000")&amp;"-"&amp;(G2)&amp;H2&amp;(K2)&amp;L2</f>
@@ -1720,13 +1810,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -1741,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -1749,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N38" si="0">IF(B3="Básico",1,IF(B3="Desafio",2,IF(B3="Avançado",3)))</f>
@@ -1777,13 +1867,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -1798,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -1806,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="0"/>
@@ -1822,13 +1912,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -1843,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -1851,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="0"/>
@@ -1867,13 +1957,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -1888,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -1896,10 +1986,10 @@
         <v>7</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="0"/>
@@ -1912,13 +2002,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -1933,22 +2023,22 @@
         <v>1</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="20">
         <v>2</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7" s="20">
         <v>7</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="0"/>
@@ -1961,13 +2051,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -1982,22 +2072,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" s="20">
         <v>3</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8" s="20">
         <v>6</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="0"/>
@@ -2010,13 +2100,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -2031,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -2039,10 +2129,10 @@
         <v>7</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="0"/>
@@ -2055,13 +2145,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -2076,22 +2166,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="20">
         <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="20">
         <v>6</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="0"/>
@@ -2104,13 +2194,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -2125,22 +2215,22 @@
         <v>1</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I11" s="20">
         <v>3</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K11" s="20">
         <v>6</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="0"/>
@@ -2153,13 +2243,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -2174,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -2182,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="0"/>
@@ -2198,13 +2288,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -2219,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -2227,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="0"/>
@@ -2243,13 +2333,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -2264,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -2272,10 +2362,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="0"/>
@@ -2288,13 +2378,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -2309,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -2317,10 +2407,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="0"/>
@@ -2333,13 +2423,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -2354,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -2362,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="0"/>
@@ -2378,13 +2468,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -2399,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2407,10 +2497,10 @@
         <v>7</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="0"/>
@@ -2423,13 +2513,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -2444,22 +2534,22 @@
         <v>1</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I18" s="20">
         <v>3</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K18" s="20">
         <v>2</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="0"/>
@@ -2472,13 +2562,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -2493,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -2501,10 +2591,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="0"/>
@@ -2517,13 +2607,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -2538,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -2546,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="0"/>
@@ -2562,13 +2652,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -2583,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -2591,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="0"/>
@@ -2607,13 +2697,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -2628,22 +2718,22 @@
         <v>1</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="20">
         <v>1</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K22" s="20">
         <v>7</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="0"/>
@@ -2656,13 +2746,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -2677,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -2685,10 +2775,10 @@
         <v>7</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="0"/>
@@ -2701,13 +2791,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -2722,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -2730,10 +2820,10 @@
         <v>2</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="0"/>
@@ -2746,13 +2836,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -2767,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -2775,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="0"/>
@@ -2791,13 +2881,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -2812,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -2820,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="0"/>
@@ -2836,13 +2926,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -2857,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -2865,10 +2955,10 @@
         <v>4</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="0"/>
@@ -2881,13 +2971,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -2902,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -2910,10 +3000,10 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="0"/>
@@ -2926,13 +3016,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -2947,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -2955,10 +3045,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="0"/>
@@ -2971,13 +3061,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -2992,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -3000,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="0"/>
@@ -3016,13 +3106,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
@@ -3037,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -3045,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="0"/>
@@ -3061,13 +3151,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -3082,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -3090,10 +3180,10 @@
         <v>4</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="0"/>
@@ -3106,13 +3196,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D33" s="9">
         <v>1</v>
@@ -3127,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -3135,10 +3225,10 @@
         <v>4</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="0"/>
@@ -3151,13 +3241,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
@@ -3172,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -3180,10 +3270,10 @@
         <v>3</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="0"/>
@@ -3196,13 +3286,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D35" s="9">
         <v>1</v>
@@ -3217,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -3225,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="0"/>
@@ -3241,13 +3331,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
@@ -3262,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
@@ -3270,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="0"/>
@@ -3286,13 +3376,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D37" s="9">
         <v>1</v>
@@ -3307,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -3315,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="0"/>
@@ -3331,13 +3421,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D38" s="9">
         <v>1</v>
@@ -3352,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -3360,10 +3450,10 @@
         <v>4</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="0"/>
@@ -3376,7 +3466,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -3406,9 +3496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="A1:O39"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,64 +3511,64 @@
     <col min="16" max="17" width="7" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="119.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="109.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="P1" s="21"/>
       <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="9">
         <v>3</v>
@@ -3493,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -3501,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M2" s="9" t="str">
         <f>LEFT(A2,2)&amp;LEFT(B2,1)&amp;TEXT(F2,"000")&amp;"-"&amp;(G2)&amp;H2&amp;(K2)&amp;L2</f>
@@ -3529,13 +3619,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
@@ -3550,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -3558,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M3" s="9" t="str">
         <f t="shared" ref="M3:M38" si="0">LEFT(A3,2)&amp;LEFT(B3,1)&amp;TEXT(F3,"000")&amp;"-"&amp;(G3)&amp;H3&amp;(K3)&amp;L3</f>
@@ -3586,13 +3676,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -3607,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3615,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3631,13 +3721,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
@@ -3652,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -3660,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3676,13 +3766,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -3697,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -3705,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3721,13 +3811,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9">
         <v>3</v>
@@ -3742,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -3750,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3766,13 +3856,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -3787,19 +3877,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8" s="9">
         <v>2</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3815,13 +3905,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -3836,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -3844,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3860,13 +3950,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D10" s="9">
         <v>3</v>
@@ -3881,19 +3971,19 @@
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="9">
         <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3909,13 +3999,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9">
         <v>3</v>
@@ -3930,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -3938,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3954,13 +4044,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -3975,19 +4065,19 @@
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9">
         <v>7</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="9">
         <v>4</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4003,13 +4093,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -4024,19 +4114,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9">
         <v>7</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K13" s="9">
         <v>3</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4052,13 +4142,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D14" s="9">
         <v>3</v>
@@ -4073,19 +4163,19 @@
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14" s="9">
         <v>2</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4101,13 +4191,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D15" s="9">
         <v>3</v>
@@ -4122,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -4130,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4146,13 +4236,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="9">
         <v>3</v>
@@ -4167,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -4175,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4191,13 +4281,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
@@ -4212,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -4220,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4236,13 +4326,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D18" s="9">
         <v>3</v>
@@ -4257,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -4265,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4281,13 +4371,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -4302,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -4310,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4326,13 +4416,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D20" s="9">
         <v>3</v>
@@ -4347,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -4355,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4371,13 +4461,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
@@ -4392,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -4400,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4416,13 +4506,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
@@ -4437,19 +4527,19 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9">
         <v>2</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K22" s="9">
         <v>3</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4465,13 +4555,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D23" s="9">
         <v>3</v>
@@ -4486,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -4494,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4510,13 +4600,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D24" s="9">
         <v>3</v>
@@ -4531,19 +4621,19 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9">
         <v>3</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K24" s="9">
         <v>3</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4559,13 +4649,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D25" s="9">
         <v>3</v>
@@ -4580,19 +4670,19 @@
         <v>3</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9">
         <v>1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K25" s="9">
         <v>5</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4608,13 +4698,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D26" s="9">
         <v>3</v>
@@ -4629,19 +4719,19 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9">
         <v>3</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K26" s="9">
         <v>9</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4657,13 +4747,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D27" s="9">
         <v>3</v>
@@ -4678,19 +4768,19 @@
         <v>1</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K27" s="9">
         <v>2</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4706,13 +4796,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D28" s="9">
         <v>3</v>
@@ -4727,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -4735,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4751,13 +4841,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D29" s="9">
         <v>3</v>
@@ -4772,19 +4862,19 @@
         <v>1</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9">
         <v>1</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K29" s="9">
         <v>2</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4800,13 +4890,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D30" s="9">
         <v>3</v>
@@ -4821,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -4829,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4845,13 +4935,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D31" s="9">
         <v>3</v>
@@ -4866,19 +4956,19 @@
         <v>1</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9">
         <v>3</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K31" s="9">
         <v>9</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4894,13 +4984,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="9">
         <v>3</v>
@@ -4915,19 +5005,19 @@
         <v>1</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9">
         <v>2</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K32" s="9">
         <v>1</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4943,13 +5033,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9">
         <v>3</v>
@@ -4964,19 +5054,19 @@
         <v>1</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9">
         <v>1</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K33" s="9">
         <v>4</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4992,13 +5082,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D34" s="9">
         <v>3</v>
@@ -5013,19 +5103,19 @@
         <v>1</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9">
         <v>1</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K34" s="9">
         <v>21</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5041,13 +5131,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9">
         <v>3</v>
@@ -5062,19 +5152,19 @@
         <v>1</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9">
         <v>2</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K35" s="9">
         <v>4</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5090,13 +5180,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D36" s="9">
         <v>3</v>
@@ -5111,19 +5201,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9">
         <v>1</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K36" s="9">
         <v>4</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M36" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5139,13 +5229,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D37" s="9">
         <v>3</v>
@@ -5160,19 +5250,19 @@
         <v>1</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9">
         <v>1</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K37" s="9">
         <v>2</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5188,13 +5278,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D38" s="9">
         <v>3</v>
@@ -5209,19 +5299,19 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9">
         <v>1</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K38" s="9">
         <v>6</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5251,12 +5341,12 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="2" t="str">
-        <f t="shared" ref="O3:O39" si="2">IF(G39=0,"O dia inteiro",IF(G39=1,"Uma vez",TEXT(G39,"0")&amp;" vezes")&amp;" por "&amp;IF(LOWER(H39)="d","dia","semana"))&amp;IF(AND(ISNUMBER(I39),I39&gt;0),", a cada "&amp;TEXT(I38,"0")&amp;" "&amp;IF(I38=1,IF(LOWER(J38)="d","dia","semana"),IF(LOWER(J38)="d","dias","semanas"))&amp;",","")&amp;" por um período de "&amp;TEXT(K38,"0")&amp;" "&amp;IF(K38=1,IF(LOWER(L38)="d","dia","semana"),IF(LOWER(L38)="d","dias","semanas"))</f>
+        <f t="shared" ref="O39" si="2">IF(G39=0,"O dia inteiro",IF(G39=1,"Uma vez",TEXT(G39,"0")&amp;" vezes")&amp;" por "&amp;IF(LOWER(H39)="d","dia","semana"))&amp;IF(AND(ISNUMBER(I39),I39&gt;0),", a cada "&amp;TEXT(I38,"0")&amp;" "&amp;IF(I38=1,IF(LOWER(J38)="d","dia","semana"),IF(LOWER(J38)="d","dias","semanas"))&amp;",","")&amp;" por um período de "&amp;TEXT(K38,"0")&amp;" "&amp;IF(K38=1,IF(LOWER(L38)="d","dia","semana"),IF(LOWER(L38)="d","dias","semanas"))</f>
         <v>O dia inteiro por um período de 6 semanas</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Número inválido" error="Informe um número inteiro maior ou igual a 0" sqref="G2:G1037 K2:K1037 I2:I1037" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
@@ -5264,7 +5354,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unidade inválida" error="Use apenas: d (dia) ou s (semana)" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>_DV!$A$1:$A$2</xm:f>
@@ -5281,9 +5371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:O39"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,60 +5389,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="119.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D2" s="9">
         <v>6</v>
@@ -5367,22 +5457,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="9">
         <v>3</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="9">
         <v>3</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M2" s="9" t="str">
-        <f>LEFT(A2,2)&amp;LEFT(B2,1)&amp;TEXT(F2,"000")&amp;"-"&amp;(G2)&amp;H2&amp;(K2)&amp;L2</f>
+        <f t="shared" ref="M2:M39" si="0">LEFT(A2,2)&amp;LEFT(B2,1)&amp;TEXT(F2,"000")&amp;"-"&amp;(G2)&amp;H2&amp;(K2)&amp;L2</f>
         <v>EuB006-1d3s</v>
       </c>
       <c r="N2" s="9">
@@ -5407,13 +5497,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9">
         <v>6</v>
@@ -5428,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -5436,17 +5526,17 @@
         <v>4</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M3" s="9" t="str">
-        <f>LEFT(A3,2)&amp;LEFT(B3,1)&amp;TEXT(F3,"000")&amp;"-"&amp;(G3)&amp;H3&amp;(K3)&amp;L3</f>
+        <f t="shared" si="0"/>
         <v>EuD007-1d4s</v>
       </c>
       <c r="N3" s="9">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O38" si="0">IF(
+        <f t="shared" ref="O3:O38" si="1">IF(
   AND(G3="",H3="",I3="",J3="",K3="",L3=""),
   "Fique atento para a primeira oportunidade que surgir",
   IF(AND(G3=0,LOWER(H3)="d",K3=0,LOWER(L3)="d"),
@@ -5464,13 +5554,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9">
         <v>6</v>
@@ -5485,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5493,29 +5583,29 @@
         <v>3</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="9" t="str">
-        <f>LEFT(A4,2)&amp;LEFT(B4,1)&amp;TEXT(F4,"000")&amp;"-"&amp;(G4)&amp;H4&amp;(K4)&amp;L4</f>
+        <f t="shared" si="0"/>
         <v>EuB001-1d3s</v>
       </c>
       <c r="N4" s="9">
         <v>1</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D5" s="9">
         <v>6</v>
@@ -5530,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5538,29 +5628,29 @@
         <v>4</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M5" s="9" t="str">
-        <f>LEFT(A5,2)&amp;LEFT(B5,1)&amp;TEXT(F5,"000")&amp;"-"&amp;(G5)&amp;H5&amp;(K5)&amp;L5</f>
+        <f t="shared" si="0"/>
         <v>EuA001-5s4s</v>
       </c>
       <c r="N5" s="9">
         <v>3</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5 vezes por semana por um período de 4 semanas</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D6" s="9">
         <v>6</v>
@@ -5575,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5583,29 +5673,29 @@
         <v>4</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M6" s="9" t="str">
-        <f>LEFT(A6,2)&amp;LEFT(B6,1)&amp;TEXT(F6,"000")&amp;"-"&amp;(G6)&amp;H6&amp;(K6)&amp;L6</f>
+        <f t="shared" si="0"/>
         <v>EuA006-1d4s</v>
       </c>
       <c r="N6" s="9">
         <v>3</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 4 semanas</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -5620,41 +5710,41 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="9">
         <v>3</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7" s="9">
         <v>3</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M7" s="9" t="str">
-        <f>LEFT(A7,2)&amp;LEFT(B7,1)&amp;TEXT(F7,"000")&amp;"-"&amp;(G7)&amp;H7&amp;(K7)&amp;L7</f>
+        <f t="shared" si="0"/>
         <v>EuB009-1d3s</v>
       </c>
       <c r="N7" s="9">
         <v>1</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia, a cada 3 dias, por um período de 3 semanas</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D8" s="9">
         <v>6</v>
@@ -5669,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5677,29 +5767,29 @@
         <v>0</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M8" s="9" t="str">
-        <f>LEFT(A8,2)&amp;LEFT(B8,1)&amp;TEXT(F8,"000")&amp;"-"&amp;(G8)&amp;H8&amp;(K8)&amp;L8</f>
+        <f t="shared" si="0"/>
         <v>EuA015-1d0d</v>
       </c>
       <c r="N8" s="9">
         <v>3</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 0 dias</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D9" s="9">
         <v>6</v>
@@ -5714,41 +5804,41 @@
         <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="9">
         <v>4</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M9" s="9" t="str">
-        <f>LEFT(A9,2)&amp;LEFT(B9,1)&amp;TEXT(F9,"000")&amp;"-"&amp;(G9)&amp;H9&amp;(K9)&amp;L9</f>
+        <f t="shared" si="0"/>
         <v>EuD008-0d4s</v>
       </c>
       <c r="N9" s="9">
         <v>2</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O dia inteiro, a cada 1 semana, por um período de 4 semanas</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D10" s="9">
         <v>6</v>
@@ -5766,24 +5856,24 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="str">
-        <f>LEFT(A10,2)&amp;LEFT(B10,1)&amp;TEXT(F10,"000")&amp;"-"&amp;(G10)&amp;H10&amp;(K10)&amp;L10</f>
+        <f t="shared" si="0"/>
         <v>EuB005-</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fique atento para a primeira oportunidade que surgir</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D11" s="9">
         <v>6</v>
@@ -5798,41 +5888,41 @@
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9">
         <v>8</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11" s="9">
         <v>8</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M11" s="9" t="str">
-        <f>LEFT(A11,2)&amp;LEFT(B11,1)&amp;TEXT(F11,"000")&amp;"-"&amp;(G11)&amp;H11&amp;(K11)&amp;L11</f>
+        <f t="shared" si="0"/>
         <v>EuA010-0d8s</v>
       </c>
       <c r="N11" s="9">
         <v>3</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O dia inteiro, a cada 8 semanas, por um período de 8 semanas</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D12" s="9">
         <v>6</v>
@@ -5847,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5855,29 +5945,29 @@
         <v>4</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M12" s="9" t="str">
-        <f>LEFT(A12,2)&amp;LEFT(B12,1)&amp;TEXT(F12,"000")&amp;"-"&amp;(G12)&amp;H12&amp;(K12)&amp;L12</f>
+        <f t="shared" si="0"/>
         <v>EuD005-1s4s</v>
       </c>
       <c r="N12" s="9">
         <v>2</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por semana por um período de 4 semanas</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9">
         <v>6</v>
@@ -5892,41 +5982,41 @@
         <v>1</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9">
         <v>3</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K13" s="9">
         <v>3</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9" t="str">
-        <f>LEFT(A13,2)&amp;LEFT(B13,1)&amp;TEXT(F13,"000")&amp;"-"&amp;(G13)&amp;H13&amp;(K13)&amp;L13</f>
+        <f t="shared" si="0"/>
         <v>EuA009-1d3s</v>
       </c>
       <c r="N13" s="9">
         <v>3</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia, a cada 3 semanas, por um período de 3 semanas</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D14" s="9">
         <v>6</v>
@@ -5941,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -5949,29 +6039,29 @@
         <v>3</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9" t="str">
-        <f>LEFT(A14,2)&amp;LEFT(B14,1)&amp;TEXT(F14,"000")&amp;"-"&amp;(G14)&amp;H14&amp;(K14)&amp;L14</f>
+        <f t="shared" si="0"/>
         <v>EuB005-1d3s</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D15" s="9">
         <v>6</v>
@@ -5986,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -5994,29 +6084,29 @@
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="9" t="str">
-        <f>LEFT(A15,2)&amp;LEFT(B15,1)&amp;TEXT(F15,"000")&amp;"-"&amp;(G15)&amp;H15&amp;(K15)&amp;L15</f>
+        <f t="shared" si="0"/>
         <v>EuA012-1d1d</v>
       </c>
       <c r="N15" s="9">
         <v>3</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pelo menos uma vez</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D16" s="9">
         <v>6</v>
@@ -6031,7 +6121,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -6039,29 +6129,29 @@
         <v>3</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9" t="str">
-        <f>LEFT(A16,2)&amp;LEFT(B16,1)&amp;TEXT(F16,"000")&amp;"-"&amp;(G16)&amp;H16&amp;(K16)&amp;L16</f>
+        <f t="shared" si="0"/>
         <v>EuB007-3d3s</v>
       </c>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3 vezes por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D17" s="9">
         <v>6</v>
@@ -6076,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -6084,29 +6174,29 @@
         <v>14</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9" t="str">
-        <f>LEFT(A17,2)&amp;LEFT(B17,1)&amp;TEXT(F17,"000")&amp;"-"&amp;(G17)&amp;H17&amp;(K17)&amp;L17</f>
+        <f t="shared" si="0"/>
         <v>EuA014-1d14d</v>
       </c>
       <c r="N17" s="9">
         <v>3</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 14 dias</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D18" s="9">
         <v>6</v>
@@ -6121,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -6129,29 +6219,29 @@
         <v>3</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9" t="str">
-        <f>LEFT(A18,2)&amp;LEFT(B18,1)&amp;TEXT(F18,"000")&amp;"-"&amp;(G18)&amp;H18&amp;(K18)&amp;L18</f>
+        <f t="shared" si="0"/>
         <v>EuB003-1d3s</v>
       </c>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D19" s="9">
         <v>6</v>
@@ -6166,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -6174,29 +6264,29 @@
         <v>3</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M19" s="9" t="str">
-        <f>LEFT(A19,2)&amp;LEFT(B19,1)&amp;TEXT(F19,"000")&amp;"-"&amp;(G19)&amp;H19&amp;(K19)&amp;L19</f>
+        <f t="shared" si="0"/>
         <v>EuD001-1d3s</v>
       </c>
       <c r="N19" s="9">
         <v>2</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D20" s="9">
         <v>6</v>
@@ -6211,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -6219,29 +6309,29 @@
         <v>0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M20" s="9" t="str">
-        <f>LEFT(A20,2)&amp;LEFT(B20,1)&amp;TEXT(F20,"000")&amp;"-"&amp;(G20)&amp;H20&amp;(K20)&amp;L20</f>
+        <f t="shared" si="0"/>
         <v>EuA011-1d0d</v>
       </c>
       <c r="N20" s="9">
         <v>3</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 0 dias</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D21" s="9">
         <v>6</v>
@@ -6256,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -6264,29 +6354,29 @@
         <v>2</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M21" s="9" t="str">
-        <f>LEFT(A21,2)&amp;LEFT(B21,1)&amp;TEXT(F21,"000")&amp;"-"&amp;(G21)&amp;H21&amp;(K21)&amp;L21</f>
+        <f t="shared" si="0"/>
         <v>EuA002-1d2s</v>
       </c>
       <c r="N21" s="9">
         <v>3</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 2 semanas</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D22" s="9">
         <v>6</v>
@@ -6301,41 +6391,41 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9">
         <v>3</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K22" s="9">
         <v>3</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9" t="str">
-        <f>LEFT(A22,2)&amp;LEFT(B22,1)&amp;TEXT(F22,"000")&amp;"-"&amp;(G22)&amp;H22&amp;(K22)&amp;L22</f>
+        <f t="shared" si="0"/>
         <v>EuA008-1d3s</v>
       </c>
       <c r="N22" s="9">
         <v>3</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia, a cada 3 semanas, por um período de 3 semanas</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D23" s="9">
         <v>6</v>
@@ -6350,41 +6440,41 @@
         <v>1</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9">
         <v>3</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K23" s="9">
         <v>4</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9" t="str">
-        <f>LEFT(A23,2)&amp;LEFT(B23,1)&amp;TEXT(F23,"000")&amp;"-"&amp;(G23)&amp;H23&amp;(K23)&amp;L23</f>
+        <f t="shared" si="0"/>
         <v>EuD009-1d4s</v>
       </c>
       <c r="N23" s="9">
         <v>2</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia, a cada 3 dias, por um período de 4 semanas</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D24" s="9">
         <v>6</v>
@@ -6399,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -6407,29 +6497,29 @@
         <v>6</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M24" s="9" t="str">
-        <f>LEFT(A24,2)&amp;LEFT(B24,1)&amp;TEXT(F24,"000")&amp;"-"&amp;(G24)&amp;H24&amp;(K24)&amp;L24</f>
+        <f t="shared" si="0"/>
         <v>EuA004-0d6s</v>
       </c>
       <c r="N24" s="9">
         <v>3</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O dia inteiro por um período de 6 semanas</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D25" s="9">
         <v>6</v>
@@ -6444,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6452,29 +6542,29 @@
         <v>1</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M25" s="9" t="str">
-        <f>LEFT(A25,2)&amp;LEFT(B25,1)&amp;TEXT(F25,"000")&amp;"-"&amp;(G25)&amp;H25&amp;(K25)&amp;L25</f>
+        <f t="shared" si="0"/>
         <v>EuD010-0d1s</v>
       </c>
       <c r="N25" s="9">
         <v>2</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O dia inteiro por um período de 1 semana</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D26" s="9">
         <v>6</v>
@@ -6489,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -6497,29 +6587,29 @@
         <v>1</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9" t="str">
-        <f>LEFT(A26,2)&amp;LEFT(B26,1)&amp;TEXT(F26,"000")&amp;"-"&amp;(G26)&amp;H26&amp;(K26)&amp;L26</f>
+        <f t="shared" si="0"/>
         <v>EuD012-1d1s</v>
       </c>
       <c r="N26" s="9">
         <v>2</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 1 semana</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D27" s="9">
         <v>6</v>
@@ -6534,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6542,29 +6632,29 @@
         <v>3</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9" t="str">
-        <f>LEFT(A27,2)&amp;LEFT(B27,1)&amp;TEXT(F27,"000")&amp;"-"&amp;(G27)&amp;H27&amp;(K27)&amp;L27</f>
+        <f t="shared" si="0"/>
         <v>EuB010-1d3s</v>
       </c>
       <c r="N27" s="9">
         <v>1</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D28" s="9">
         <v>6</v>
@@ -6579,41 +6669,41 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9">
         <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K28" s="9">
         <v>2</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9" t="str">
-        <f>LEFT(A28,2)&amp;LEFT(B28,1)&amp;TEXT(F28,"000")&amp;"-"&amp;(G28)&amp;H28&amp;(K28)&amp;L28</f>
+        <f t="shared" si="0"/>
         <v>EuD003-1d2s</v>
       </c>
       <c r="N28" s="9">
         <v>2</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia, a cada 1 semana, por um período de 2 semanas</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D29" s="9">
         <v>6</v>
@@ -6628,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6636,29 +6726,29 @@
         <v>3</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M29" s="9" t="str">
-        <f>LEFT(A29,2)&amp;LEFT(B29,1)&amp;TEXT(F29,"000")&amp;"-"&amp;(G29)&amp;H29&amp;(K29)&amp;L29</f>
+        <f t="shared" si="0"/>
         <v>EuD002-1d3s</v>
       </c>
       <c r="N29" s="9">
         <v>2</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D30" s="9">
         <v>6</v>
@@ -6673,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6681,29 +6771,29 @@
         <v>3</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M30" s="9" t="str">
-        <f>LEFT(A30,2)&amp;LEFT(B30,1)&amp;TEXT(F30,"000")&amp;"-"&amp;(G30)&amp;H30&amp;(K30)&amp;L30</f>
+        <f t="shared" si="0"/>
         <v>EuA013-3d3s</v>
       </c>
       <c r="N30" s="9">
         <v>3</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3 vezes por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D31" s="9">
         <v>6</v>
@@ -6718,41 +6808,41 @@
         <v>1</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9">
         <v>2</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K31" s="9">
         <v>4</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M31" s="9" t="str">
-        <f>LEFT(A31,2)&amp;LEFT(B31,1)&amp;TEXT(F31,"000")&amp;"-"&amp;(G31)&amp;H31&amp;(K31)&amp;L31</f>
+        <f t="shared" si="0"/>
         <v>EuD006-1s4s</v>
       </c>
       <c r="N31" s="9">
         <v>2</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por semana, a cada 2 semanas, por um período de 4 semanas</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D32" s="9">
         <v>6</v>
@@ -6767,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6775,29 +6865,29 @@
         <v>21</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M32" s="9" t="str">
-        <f>LEFT(A32,2)&amp;LEFT(B32,1)&amp;TEXT(F32,"000")&amp;"-"&amp;(G32)&amp;H32&amp;(K32)&amp;L32</f>
+        <f t="shared" si="0"/>
         <v>EuA005-1d21d</v>
       </c>
       <c r="N32" s="9">
         <v>3</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 21 dias</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D33" s="9">
         <v>6</v>
@@ -6812,41 +6902,41 @@
         <v>1</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9">
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K33" s="9">
         <v>3</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9" t="str">
-        <f>LEFT(A33,2)&amp;LEFT(B33,1)&amp;TEXT(F33,"000")&amp;"-"&amp;(G33)&amp;H33&amp;(K33)&amp;L33</f>
+        <f t="shared" si="0"/>
         <v>EuD004-1d3s</v>
       </c>
       <c r="N33" s="9">
         <v>2</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia, a cada 3 semanas, por um período de 3 semanas</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D34" s="9">
         <v>6</v>
@@ -6861,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6869,29 +6959,29 @@
         <v>0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9" t="str">
-        <f>LEFT(A34,2)&amp;LEFT(B34,1)&amp;TEXT(F34,"000")&amp;"-"&amp;(G34)&amp;H34&amp;(K34)&amp;L34</f>
+        <f t="shared" si="0"/>
         <v>EuA007-1d0d</v>
       </c>
       <c r="N34" s="9">
         <v>3</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 0 dias</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D35" s="9">
         <v>6</v>
@@ -6906,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6914,29 +7004,29 @@
         <v>3</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9" t="str">
-        <f>LEFT(A35,2)&amp;LEFT(B35,1)&amp;TEXT(F35,"000")&amp;"-"&amp;(G35)&amp;H35&amp;(K35)&amp;L35</f>
+        <f t="shared" si="0"/>
         <v>EuD011-0d3d</v>
       </c>
       <c r="N35" s="9">
         <v>2</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O dia inteiro por um período de 3 dias</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D36" s="9">
         <v>6</v>
@@ -6951,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6959,29 +7049,29 @@
         <v>3</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M36" s="9" t="str">
-        <f>LEFT(A36,2)&amp;LEFT(B36,1)&amp;TEXT(F36,"000")&amp;"-"&amp;(G36)&amp;H36&amp;(K36)&amp;L36</f>
+        <f t="shared" si="0"/>
         <v>EuB008-0d3s</v>
       </c>
       <c r="N36" s="9">
         <v>1</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O dia inteiro por um período de 3 semanas</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9">
         <v>6</v>
@@ -6996,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -7004,29 +7094,29 @@
         <v>1</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M37" s="9" t="str">
-        <f>LEFT(A37,2)&amp;LEFT(B37,1)&amp;TEXT(F37,"000")&amp;"-"&amp;(G37)&amp;H37&amp;(K37)&amp;L37</f>
+        <f t="shared" si="0"/>
         <v>EuB004-1d1s</v>
       </c>
       <c r="N37" s="9">
         <v>1</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 1 semana</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D38" s="9">
         <v>6</v>
@@ -7041,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -7049,29 +7139,29 @@
         <v>3</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M38" s="9" t="str">
-        <f>LEFT(A38,2)&amp;LEFT(B38,1)&amp;TEXT(F38,"000")&amp;"-"&amp;(G38)&amp;H38&amp;(K38)&amp;L38</f>
+        <f t="shared" si="0"/>
         <v>EuB002-1d3s</v>
       </c>
       <c r="N38" s="9">
         <v>1</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Uma vez por dia por um período de 3 semanas</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D39" s="9">
         <v>6</v>
@@ -7086,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -7094,10 +7184,10 @@
         <v>21</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9" t="str">
-        <f>LEFT(A39,2)&amp;LEFT(B39,1)&amp;TEXT(F39,"000")&amp;"-"&amp;(G39)&amp;H39&amp;(K39)&amp;L39</f>
+        <f t="shared" si="0"/>
         <v>EuA003-1d21d</v>
       </c>
       <c r="N39" s="9">
@@ -7110,10 +7200,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -7163,49 +7253,49 @@
   <sheetData>
     <row r="1" spans="1:19" s="17" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
@@ -7214,13 +7304,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
@@ -7235,19 +7325,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="9">
         <v>3</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="9">
         <v>7</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="9" t="str">
         <f>LEFT(A2,2)&amp;LEFT(B2,1)&amp;TEXT(F2,"000")&amp;"-"&amp;IF(
@@ -7280,13 +7370,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
@@ -7334,13 +7424,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D4" s="8">
         <v>4</v>
@@ -7372,13 +7462,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D5" s="8">
         <v>4</v>
@@ -7410,13 +7500,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
@@ -7448,13 +7538,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -7486,13 +7576,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
@@ -7524,13 +7614,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
@@ -7562,13 +7652,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8">
         <v>4</v>
@@ -7600,13 +7690,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" s="8">
         <v>4</v>
@@ -7638,13 +7728,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D12" s="8">
         <v>4</v>
@@ -7676,13 +7766,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D13" s="8">
         <v>4</v>
@@ -7697,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -7705,7 +7795,7 @@
         <v>7</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7722,13 +7812,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
@@ -7760,13 +7850,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D15" s="8">
         <v>4</v>
@@ -7798,13 +7888,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D16" s="8">
         <v>4</v>
@@ -7819,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -7827,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7844,13 +7934,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
@@ -7865,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -7873,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7890,13 +7980,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
@@ -7911,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -7919,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7936,13 +8026,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
@@ -7957,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -7965,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7982,13 +8072,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
@@ -8003,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -8011,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8028,13 +8118,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D21" s="8">
         <v>4</v>
@@ -8049,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -8057,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8074,13 +8164,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
@@ -8095,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -8103,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8120,13 +8210,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D23" s="8">
         <v>4</v>
@@ -8141,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -8149,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8166,13 +8256,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D24" s="8">
         <v>4</v>
@@ -8187,19 +8277,19 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9">
         <v>7</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K24" s="9">
         <v>60</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8216,13 +8306,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D25" s="8">
         <v>4</v>
@@ -8254,13 +8344,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D26" s="8">
         <v>4</v>
@@ -8292,13 +8382,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D27" s="8">
         <v>4</v>
@@ -8330,13 +8420,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D28" s="8">
         <v>4</v>
@@ -8368,13 +8458,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D29" s="8">
         <v>4</v>
@@ -8406,13 +8496,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D30" s="8">
         <v>4</v>
@@ -8444,13 +8534,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D31" s="8">
         <v>4</v>
@@ -8482,13 +8572,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D32" s="8">
         <v>4</v>
@@ -8520,13 +8610,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D33" s="8">
         <v>4</v>
@@ -8558,13 +8648,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D34" s="8">
         <v>4</v>
@@ -8596,13 +8686,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D35" s="8">
         <v>4</v>
@@ -8634,13 +8724,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D36" s="8">
         <v>4</v>
@@ -8672,13 +8762,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D37" s="8">
         <v>4</v>
@@ -8693,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -8701,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8718,13 +8808,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D38" s="8">
         <v>4</v>
@@ -8739,19 +8829,19 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9">
         <v>7</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K38" s="9">
         <v>60</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8768,10 +8858,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8818,49 +8908,49 @@
   <sheetData>
     <row r="1" spans="1:19" ht="84" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
@@ -8869,13 +8959,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
@@ -8923,13 +9013,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -8977,13 +9067,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
@@ -9015,13 +9105,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
@@ -9053,13 +9143,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -9091,13 +9181,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -9129,13 +9219,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -9167,13 +9257,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -9205,13 +9295,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D10" s="3">
         <v>5</v>
@@ -9243,13 +9333,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
@@ -9281,13 +9371,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -9319,13 +9409,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -9357,13 +9447,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -9395,13 +9485,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -9433,13 +9523,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -9471,13 +9561,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -9509,13 +9599,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -9547,13 +9637,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
@@ -9585,13 +9675,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
@@ -9623,13 +9713,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
@@ -9661,13 +9751,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
@@ -9699,13 +9789,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
@@ -9720,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -9728,7 +9818,7 @@
         <v>7</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9745,13 +9835,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
@@ -9766,19 +9856,19 @@
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2">
         <v>7</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2">
         <v>21</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9795,13 +9885,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
@@ -9816,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -9824,7 +9914,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9841,13 +9931,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
@@ -9879,13 +9969,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -9900,19 +9990,19 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="2">
         <v>7</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2">
         <v>30</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9929,13 +10019,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -9950,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -9958,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9975,13 +10065,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -9996,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -10004,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10021,13 +10111,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D30" s="3">
         <v>5</v>
@@ -10042,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -10050,7 +10140,7 @@
         <v>30</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10067,13 +10157,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D31" s="3">
         <v>5</v>
@@ -10088,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -10096,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10113,13 +10203,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D32" s="3">
         <v>5</v>
@@ -10134,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -10142,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10159,13 +10249,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
@@ -10180,19 +10270,19 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2">
         <v>30</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2">
         <v>90</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10209,13 +10299,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D34" s="3">
         <v>5</v>
@@ -10247,13 +10337,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3">
         <v>5</v>
@@ -10268,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -10276,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10293,13 +10383,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -10314,19 +10404,19 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I36" s="2">
         <v>30</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K36" s="2">
         <v>90</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10343,13 +10433,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D37" s="3">
         <v>5</v>
@@ -10364,19 +10454,19 @@
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="2">
         <v>21</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2">
         <v>21</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10393,13 +10483,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -10414,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -10422,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10439,7 +10529,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -10469,7 +10559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
@@ -10492,62 +10582,62 @@
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="117.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="N1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D2" s="8">
         <v>2</v>
@@ -10562,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -10570,7 +10660,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="9" t="str">
         <f>LEFT(A2,2)&amp;LEFT(B2,1)&amp;TEXT(F2,"000")&amp;"-"&amp;IF(
@@ -10603,13 +10693,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
@@ -10624,19 +10714,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="9">
         <v>7</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="9">
         <v>14</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="9" t="str">
         <f t="shared" ref="M3:M38" si="0">LEFT(A3,2)&amp;LEFT(B3,1)&amp;TEXT(F3,"000")&amp;"-"&amp;IF(
@@ -10669,13 +10759,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -10690,19 +10780,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9">
         <v>7</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K4" s="9">
         <v>14</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10719,13 +10809,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -10740,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -10748,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10765,13 +10855,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
@@ -10786,7 +10876,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -10794,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10811,13 +10901,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -10832,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -10840,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10857,13 +10947,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -10878,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -10886,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10903,13 +10993,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -10924,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -10932,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10949,13 +11039,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -10970,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -10978,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10995,13 +11085,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
@@ -11016,19 +11106,19 @@
         <v>1</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9">
         <v>7</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K11" s="9">
         <v>21</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11045,13 +11135,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
@@ -11066,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -11074,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11091,13 +11181,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -11112,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -11120,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11137,13 +11227,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
@@ -11158,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -11166,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11183,13 +11273,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
@@ -11204,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -11212,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11229,13 +11319,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
@@ -11250,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -11258,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11275,13 +11365,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
@@ -11296,19 +11386,19 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9">
         <v>7</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K17" s="9">
         <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11325,13 +11415,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
@@ -11346,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -11354,7 +11444,7 @@
         <v>7</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11371,13 +11461,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
@@ -11392,19 +11482,19 @@
         <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9">
         <v>3</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K19" s="9">
         <v>7</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11421,13 +11511,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D20" s="8">
         <v>2</v>
@@ -11442,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -11450,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11467,13 +11557,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D21" s="8">
         <v>2</v>
@@ -11488,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -11496,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11513,13 +11603,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D22" s="8">
         <v>2</v>
@@ -11534,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -11542,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11559,13 +11649,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
@@ -11580,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -11588,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11605,13 +11695,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
@@ -11626,19 +11716,19 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9">
         <v>7</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K24" s="9">
         <v>30</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11655,13 +11745,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D25" s="8">
         <v>2</v>
@@ -11676,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -11684,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11701,13 +11791,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
@@ -11722,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -11730,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11747,13 +11837,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -11768,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -11776,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11793,13 +11883,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
@@ -11814,19 +11904,19 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9">
         <v>7</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K28" s="9">
         <v>21</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11843,13 +11933,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D29" s="8">
         <v>2</v>
@@ -11864,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -11872,7 +11962,7 @@
         <v>30</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11889,13 +11979,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D30" s="8">
         <v>2</v>
@@ -11910,19 +12000,19 @@
         <v>1</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9">
         <v>7</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K30" s="9">
         <v>30</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11939,13 +12029,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
@@ -11960,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -11968,7 +12058,7 @@
         <v>3</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11985,13 +12075,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D32" s="8">
         <v>2</v>
@@ -12006,19 +12096,19 @@
         <v>1</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9">
         <v>7</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K32" s="9">
         <v>60</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12035,13 +12125,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
@@ -12056,19 +12146,19 @@
         <v>1</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9">
         <v>7</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K33" s="9">
         <v>60</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12085,13 +12175,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D34" s="8">
         <v>2</v>
@@ -12106,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -12114,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12131,13 +12221,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
@@ -12152,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -12160,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12177,13 +12267,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
@@ -12198,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -12206,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12223,13 +12313,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D37" s="8">
         <v>2</v>
@@ -12244,19 +12334,19 @@
         <v>1</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9">
         <v>7</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K37" s="9">
         <v>30</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12273,13 +12363,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -12294,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -12302,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12319,7 +12409,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4"/>
     </row>
